--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>414012.0599772845</v>
+        <v>412278.5788636409</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.21222871</v>
+        <v>6049179.212228714</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>191.2353625151102</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H11" t="n">
-        <v>231.5596978048557</v>
+        <v>86.85090183619333</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.2101971950037</v>
+        <v>66.21019719500374</v>
       </c>
       <c r="T11" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U11" t="n">
         <v>171.691938427054</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X11" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,10 +1455,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>78.213869228294</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>65.63800116627694</v>
       </c>
       <c r="G12" t="n">
         <v>135.8553954612995</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S12" t="n">
-        <v>64.61075194868775</v>
+        <v>76.92252626511529</v>
       </c>
       <c r="T12" t="n">
-        <v>114.7353427130814</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U12" t="n">
-        <v>158.724042426749</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110537</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E13" t="n">
-        <v>67.00275141946219</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582426</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571729</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278242</v>
+        <v>71.70374093278247</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234357</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089778</v>
+        <v>41.76594105089781</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1582,19 +1582,19 @@
         <v>143.1837610607363</v>
       </c>
       <c r="U13" t="n">
-        <v>206.8197676978038</v>
+        <v>206.8197676978039</v>
       </c>
       <c r="V13" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W13" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X13" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D14" t="n">
         <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F14" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
-        <v>333.0902356170841</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048557</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.766207978160162</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.2101971950037</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4895384249673</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.809757490306</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>151.5501407227357</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>98.28939518747531</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1704,7 +1704,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I15" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>144.0419631757947</v>
+        <v>64.61075194868779</v>
       </c>
       <c r="T15" t="n">
-        <v>168.31746452802</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U15" t="n">
-        <v>146.412268110321</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>172.2637719338126</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>126.3417739763705</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>126.2514845501974</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D16" t="n">
-        <v>69.18426179110537</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E16" t="n">
-        <v>67.00275141946219</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582426</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571729</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278242</v>
+        <v>71.70374093278247</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50079242234357</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089778</v>
+        <v>41.76594105089781</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1822,16 +1822,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V16" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W16" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X16" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.8714192092667</v>
+        <v>223.8714192092666</v>
       </c>
       <c r="C17" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D17" t="n">
-        <v>15.92229651677951</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E17" t="n">
-        <v>223.0679476180479</v>
+        <v>223.0679476180478</v>
       </c>
       <c r="F17" t="n">
-        <v>248.0136232874976</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G17" t="n">
-        <v>253.6590243899773</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H17" t="n">
         <v>152.1284865777488</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786045</v>
+        <v>52.05832719786039</v>
       </c>
       <c r="U17" t="n">
-        <v>92.2607271999471</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>168.889836015921</v>
+        <v>81.25224056617769</v>
       </c>
       <c r="W17" t="n">
         <v>190.3785462631991</v>
@@ -1910,7 +1910,7 @@
         <v>210.8686782242551</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3755162018397</v>
+        <v>227.3755162018396</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>44.42117135612573</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,16 +1932,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>70.89306784703854</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
         <v>97.863321483828</v>
       </c>
       <c r="I18" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>194.1665539401884</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.96955772772341</v>
+        <v>20.96955772772336</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>8.384398644413892</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>54.11983324855822</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.880965658610398</v>
+        <v>7.880965658610341</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.2744851471423</v>
+        <v>43.41206269292839</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362939</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U19" t="n">
-        <v>127.3885564706969</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V19" t="n">
-        <v>93.27522086961412</v>
+        <v>93.27522086961406</v>
       </c>
       <c r="W19" t="n">
-        <v>127.6605758823771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>153.4778573092745</v>
+        <v>66.84723293482321</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.72223089788091</v>
+        <v>59.72223089788085</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.8714192092667</v>
+        <v>223.8714192092666</v>
       </c>
       <c r="C20" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D20" t="n">
-        <v>195.8206191664691</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E20" t="n">
-        <v>223.0679476180479</v>
+        <v>223.0679476180478</v>
       </c>
       <c r="F20" t="n">
-        <v>248.0136232874976</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G20" t="n">
-        <v>253.6590243899773</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H20" t="n">
         <v>152.1284865777488</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>41.04984056409211</v>
+        <v>52.05832719786039</v>
       </c>
       <c r="U20" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994704</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W20" t="n">
         <v>190.3785462631991</v>
       </c>
       <c r="X20" t="n">
-        <v>210.8686782242551</v>
+        <v>30.97035557456491</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3755162018397</v>
+        <v>227.3755162018396</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>7.736857580234186</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S21" t="n">
         <v>144.0419631757947</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1665539401884</v>
+        <v>35.30413148597447</v>
       </c>
       <c r="U21" t="n">
-        <v>225.843479337428</v>
+        <v>120.5631786981516</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,31 +2236,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.96955772772341</v>
+        <v>97.76480021992805</v>
       </c>
       <c r="C22" t="n">
-        <v>8.384398644413949</v>
+        <v>8.384398644413892</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.880965658610398</v>
+        <v>7.880965658610341</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>66.93977392856817</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.2744851471423</v>
+        <v>43.41206269292839</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362939</v>
+        <v>63.75254983362933</v>
       </c>
       <c r="U22" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961412</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X22" t="n">
-        <v>66.84723293482327</v>
+        <v>66.84723293482321</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.72223089788091</v>
+        <v>59.72223089788085</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.8714192092667</v>
+        <v>223.8714192092666</v>
       </c>
       <c r="C23" t="n">
-        <v>206.4104693167937</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D23" t="n">
-        <v>195.8206191664691</v>
+        <v>195.820619166469</v>
       </c>
       <c r="E23" t="n">
-        <v>223.0679476180479</v>
+        <v>223.0679476180478</v>
       </c>
       <c r="F23" t="n">
-        <v>248.0136232874976</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G23" t="n">
-        <v>253.6590243899773</v>
+        <v>253.6590243899772</v>
       </c>
       <c r="H23" t="n">
         <v>152.1284865777488</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786045</v>
+        <v>52.05832719786039</v>
       </c>
       <c r="U23" t="n">
-        <v>92.2607271999471</v>
+        <v>92.26072719994704</v>
       </c>
       <c r="V23" t="n">
         <v>168.889836015921</v>
@@ -2384,7 +2384,7 @@
         <v>210.8686782242551</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3755162018397</v>
+        <v>227.3755162018396</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H24" t="n">
-        <v>97.863321483828</v>
+        <v>51.7797847686243</v>
       </c>
       <c r="I24" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S24" t="n">
-        <v>67.56131437475032</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T24" t="n">
         <v>194.1665539401884</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772341</v>
+        <v>20.96955772772336</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384398644413949</v>
+        <v>8.384398644413892</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.880965658610398</v>
+        <v>166.7433881128243</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>54.11983324855818</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.41206269292846</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362939</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U25" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V25" t="n">
-        <v>93.27522086961412</v>
+        <v>93.27522086961406</v>
       </c>
       <c r="W25" t="n">
-        <v>205.4687329982188</v>
+        <v>127.6605758823771</v>
       </c>
       <c r="X25" t="n">
-        <v>66.84723293482327</v>
+        <v>66.84723293482321</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72223089788085</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E26" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F26" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G26" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H26" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173341</v>
+        <v>23.81896975173333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.21019719500379</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T26" t="n">
-        <v>131.4895384249674</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U26" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V26" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W26" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X26" t="n">
-        <v>290.2998894513621</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I27" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S27" t="n">
         <v>144.0419631757947</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152092</v>
+        <v>87.81560987152086</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110544</v>
+        <v>69.18426179110538</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946226</v>
+        <v>67.0027514194622</v>
       </c>
       <c r="F28" t="n">
-        <v>65.98983679582433</v>
+        <v>65.98983679582427</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571736</v>
+        <v>87.31217688571731</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278249</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234364</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089785</v>
+        <v>41.76594105089778</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2770,16 +2770,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V28" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W28" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X28" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E29" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F29" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G29" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H29" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173336</v>
+        <v>23.81896975173333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500372</v>
       </c>
       <c r="T29" t="n">
-        <v>131.4895384249674</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U29" t="n">
         <v>171.691938427054</v>
@@ -2852,10 +2852,10 @@
         <v>248.3210472430279</v>
       </c>
       <c r="W29" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X29" t="n">
-        <v>290.2998894513621</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y29" t="n">
         <v>306.8067274289466</v>
@@ -2889,7 +2889,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I30" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2950,25 +2950,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152086</v>
       </c>
       <c r="D31" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110538</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946221</v>
+        <v>67.0027514194622</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582427</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571731</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278245</v>
+        <v>71.70374093278242</v>
       </c>
       <c r="I31" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089778</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.3026304363736</v>
+        <v>303.3026304363737</v>
       </c>
       <c r="C32" t="n">
-        <v>285.8416805439006</v>
+        <v>285.8416805439007</v>
       </c>
       <c r="D32" t="n">
-        <v>275.251830393576</v>
+        <v>275.2518303935761</v>
       </c>
       <c r="E32" t="n">
         <v>302.4991588451549</v>
       </c>
       <c r="F32" t="n">
-        <v>327.4448345146045</v>
+        <v>327.4448345146046</v>
       </c>
       <c r="G32" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170843</v>
       </c>
       <c r="H32" t="n">
         <v>231.5596978048558</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173336</v>
+        <v>23.81896975173342</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.21019719500373</v>
+        <v>66.2101971950038</v>
       </c>
       <c r="T32" t="n">
-        <v>131.4895384249674</v>
+        <v>131.4895384249675</v>
       </c>
       <c r="U32" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V32" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W32" t="n">
         <v>269.8097574903061</v>
       </c>
       <c r="X32" t="n">
-        <v>290.2998894513621</v>
+        <v>290.2998894513622</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.8067274289469</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I33" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C34" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152095</v>
       </c>
       <c r="D34" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110547</v>
       </c>
       <c r="E34" t="n">
-        <v>67.00275141946221</v>
+        <v>67.00275141946229</v>
       </c>
       <c r="F34" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582436</v>
       </c>
       <c r="G34" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571739</v>
       </c>
       <c r="H34" t="n">
-        <v>71.70374093278244</v>
+        <v>71.70374093278252</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234361</v>
+        <v>38.50079242234367</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089787</v>
       </c>
       <c r="S34" t="n">
-        <v>122.8432739200354</v>
+        <v>122.8432739200355</v>
       </c>
       <c r="T34" t="n">
-        <v>143.1837610607363</v>
+        <v>143.1837610607364</v>
       </c>
       <c r="U34" t="n">
         <v>206.8197676978039</v>
       </c>
       <c r="V34" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W34" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X34" t="n">
-        <v>146.2784441619302</v>
+        <v>146.2784441619303</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I36" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3424,10 +3424,10 @@
         <v>34.19057175982661</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D37" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0.7925542244584847</v>
@@ -3439,13 +3439,13 @@
         <v>21.10197969071359</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778717</v>
+        <v>5.493543737778715</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503165</v>
       </c>
       <c r="T37" t="n">
         <v>76.97356386573259</v>
       </c>
       <c r="U37" t="n">
-        <v>257.8533284841977</v>
+        <v>233.4090723400917</v>
       </c>
       <c r="V37" t="n">
-        <v>106.4962349017173</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>140.8815899144803</v>
@@ -3600,7 +3600,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I39" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3667,7 +3667,7 @@
         <v>2.97406459610167</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7925542244584847</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,13 +3676,13 @@
         <v>21.10197969071359</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778717</v>
+        <v>5.493543737778715</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.63307672503166</v>
+        <v>149.6529389615026</v>
       </c>
       <c r="T40" t="n">
-        <v>169.9934261022037</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2509789249108</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V40" t="n">
         <v>106.4962349017173</v>
@@ -3837,7 +3837,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I42" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S42" t="n">
         <v>144.0419631757947</v>
@@ -3901,7 +3901,7 @@
         <v>21.60541267651715</v>
       </c>
       <c r="D43" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0.7925542244584847</v>
@@ -3913,7 +3913,7 @@
         <v>21.10197969071359</v>
       </c>
       <c r="H43" t="n">
-        <v>103.4475246253856</v>
+        <v>5.493543737778715</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503165</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6149722878433</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2509789249108</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V43" t="n">
         <v>106.4962349017173</v>
       </c>
       <c r="W43" t="n">
-        <v>140.8815899144803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>80.06824696692647</v>
+        <v>178.0222278545334</v>
       </c>
       <c r="Y43" t="n">
         <v>72.9432449299841</v>
@@ -4074,7 +4074,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I45" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S45" t="n">
         <v>144.0419631757947</v>
@@ -4144,13 +4144,13 @@
         <v>0.7925542244584847</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>21.10197969071359</v>
+        <v>166.7433881128243</v>
       </c>
       <c r="H46" t="n">
-        <v>5.493543737778717</v>
+        <v>103.4475246253857</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503166</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T46" t="n">
         <v>76.97356386573259</v>
@@ -4195,10 +4195,10 @@
         <v>106.4962349017173</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>140.8815899144803</v>
       </c>
       <c r="X46" t="n">
-        <v>178.2425882537129</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y46" t="n">
         <v>72.9432449299841</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>779.3098667720061</v>
+        <v>1089.21565205377</v>
       </c>
       <c r="C11" t="n">
-        <v>779.3098667720061</v>
+        <v>800.4866818074054</v>
       </c>
       <c r="D11" t="n">
-        <v>779.3098667720061</v>
+        <v>800.4866818074054</v>
       </c>
       <c r="E11" t="n">
-        <v>473.7551608678101</v>
+        <v>494.9319759032086</v>
       </c>
       <c r="F11" t="n">
-        <v>473.7551608678101</v>
+        <v>494.9319759032086</v>
       </c>
       <c r="G11" t="n">
-        <v>280.5881280242644</v>
+        <v>158.4771924516087</v>
       </c>
       <c r="H11" t="n">
-        <v>46.68944337289494</v>
+        <v>70.7490087786862</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J11" t="n">
         <v>268.5576303040251</v>
       </c>
       <c r="K11" t="n">
-        <v>400.9213749217364</v>
+        <v>400.9213749217365</v>
       </c>
       <c r="L11" t="n">
-        <v>602.0320663808823</v>
+        <v>602.0320663808825</v>
       </c>
       <c r="M11" t="n">
         <v>1179.813928120457</v>
@@ -5057,34 +5057,34 @@
         <v>1680.137713667795</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.01833895467</v>
+        <v>2022.425618108813</v>
       </c>
       <c r="Q11" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.87944779889</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S11" t="n">
-        <v>2267.593181579087</v>
+        <v>2267.593181579086</v>
       </c>
       <c r="T11" t="n">
-        <v>2134.775465998312</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="U11" t="n">
-        <v>1961.349265566944</v>
+        <v>1961.349265566943</v>
       </c>
       <c r="V11" t="n">
-        <v>1961.349265566944</v>
+        <v>1961.349265566943</v>
       </c>
       <c r="W11" t="n">
         <v>1688.814156990877</v>
       </c>
       <c r="X11" t="n">
-        <v>1395.581945423845</v>
+        <v>1395.581945423844</v>
       </c>
       <c r="Y11" t="n">
-        <v>1085.67616014208</v>
+        <v>1395.581945423844</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>911.928407359629</v>
+        <v>751.4613139715342</v>
       </c>
       <c r="C12" t="n">
-        <v>737.475378078502</v>
+        <v>577.0082846904072</v>
       </c>
       <c r="D12" t="n">
-        <v>588.5409684172507</v>
+        <v>428.0738750291559</v>
       </c>
       <c r="E12" t="n">
-        <v>429.3035134117953</v>
+        <v>349.0699667177479</v>
       </c>
       <c r="F12" t="n">
         <v>282.7689554386803</v>
@@ -5112,58 +5112,58 @@
         <v>145.5412832555495</v>
       </c>
       <c r="H12" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J12" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K12" t="n">
-        <v>548.3928263393643</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L12" t="n">
-        <v>731.1045614300152</v>
+        <v>731.1045614300155</v>
       </c>
       <c r="M12" t="n">
-        <v>1308.88642316959</v>
+        <v>963.6774064972809</v>
       </c>
       <c r="N12" t="n">
-        <v>1886.668284909165</v>
+        <v>1216.814407647125</v>
       </c>
       <c r="O12" t="n">
-        <v>2136.306615946195</v>
+        <v>1613.051960134166</v>
       </c>
       <c r="P12" t="n">
-        <v>2284.996269409651</v>
+        <v>2077.01975455116</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R12" t="n">
         <v>2326.629995268227</v>
       </c>
       <c r="S12" t="n">
-        <v>2261.366609461472</v>
+        <v>2248.930473788312</v>
       </c>
       <c r="T12" t="n">
-        <v>2145.472323892703</v>
+        <v>2052.802641525496</v>
       </c>
       <c r="U12" t="n">
-        <v>1985.145008310128</v>
+        <v>1824.677914922033</v>
       </c>
       <c r="V12" t="n">
-        <v>1749.992900078385</v>
+        <v>1589.52580669029</v>
       </c>
       <c r="W12" t="n">
-        <v>1495.755543350184</v>
+        <v>1335.288449962089</v>
       </c>
       <c r="X12" t="n">
-        <v>1287.904043144651</v>
+        <v>1127.436949756556</v>
       </c>
       <c r="Y12" t="n">
-        <v>1080.143744379697</v>
+        <v>919.6766509916022</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433555</v>
+        <v>539.1229485433558</v>
       </c>
       <c r="C13" t="n">
-        <v>450.420312309496</v>
+        <v>450.4203123094964</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5372195912078</v>
+        <v>380.537219591208</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028621</v>
+        <v>312.8576727028624</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718989993</v>
+        <v>246.2012718989994</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0071538326182</v>
+        <v>158.0071538326183</v>
       </c>
       <c r="H13" t="n">
-        <v>85.5791326883935</v>
+        <v>85.57913268839353</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289493</v>
       </c>
       <c r="J13" t="n">
         <v>120.2234082279187</v>
       </c>
       <c r="K13" t="n">
-        <v>320.3114555080081</v>
+        <v>320.311455508008</v>
       </c>
       <c r="L13" t="n">
-        <v>609.8904447105122</v>
+        <v>609.8904447105131</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538477</v>
+        <v>921.3253246538486</v>
       </c>
       <c r="N13" t="n">
-        <v>1232.659405364006</v>
+        <v>1232.659405364007</v>
       </c>
       <c r="O13" t="n">
-        <v>1510.213519297865</v>
+        <v>1510.213519297866</v>
       </c>
       <c r="P13" t="n">
-        <v>1735.537777472235</v>
+        <v>1735.537777472236</v>
       </c>
       <c r="Q13" t="n">
-        <v>1832.298320439746</v>
+        <v>1832.298320439747</v>
       </c>
       <c r="R13" t="n">
-        <v>1790.110501196415</v>
+        <v>1790.110501196416</v>
       </c>
       <c r="S13" t="n">
-        <v>1666.026386125672</v>
+        <v>1666.026386125673</v>
       </c>
       <c r="T13" t="n">
-        <v>1521.396324448161</v>
+        <v>1521.396324448162</v>
       </c>
       <c r="U13" t="n">
-        <v>1312.487468187753</v>
+        <v>1312.487468187754</v>
       </c>
       <c r="V13" t="n">
-        <v>1138.036526675913</v>
+        <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330002</v>
+        <v>928.8529033330008</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290304</v>
+        <v>781.0968991290308</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795477</v>
+        <v>640.5378666795482</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1225.827421484127</v>
+        <v>1251.541677994507</v>
       </c>
       <c r="C14" t="n">
-        <v>1225.827421484127</v>
+        <v>962.8127077481429</v>
       </c>
       <c r="D14" t="n">
-        <v>947.7952695714241</v>
+        <v>684.7805558354398</v>
       </c>
       <c r="E14" t="n">
-        <v>947.7952695714241</v>
+        <v>379.225849931243</v>
       </c>
       <c r="F14" t="n">
-        <v>617.042911475864</v>
+        <v>48.47349183568296</v>
       </c>
       <c r="G14" t="n">
-        <v>280.5881280242644</v>
+        <v>48.47349183568296</v>
       </c>
       <c r="H14" t="n">
-        <v>46.68944337289494</v>
+        <v>48.47349183568296</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J14" t="n">
-        <v>101.151981283672</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K14" t="n">
-        <v>233.5157259013834</v>
+        <v>400.9213749217365</v>
       </c>
       <c r="L14" t="n">
-        <v>434.6264173605293</v>
+        <v>602.0320663808825</v>
       </c>
       <c r="M14" t="n">
-        <v>724.421736929113</v>
+        <v>1179.813928120457</v>
       </c>
       <c r="N14" t="n">
-        <v>1302.203598668688</v>
+        <v>1757.595789860032</v>
       </c>
       <c r="O14" t="n">
-        <v>1879.985460408263</v>
+        <v>2065.584580315711</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.01833895467</v>
+        <v>2232.617458862118</v>
       </c>
       <c r="Q14" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.879447798889</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S14" t="n">
-        <v>2267.593181579087</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T14" t="n">
-        <v>2134.775465998312</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="U14" t="n">
-        <v>1961.349265566944</v>
+        <v>2161.045968213378</v>
       </c>
       <c r="V14" t="n">
-        <v>1961.349265566944</v>
+        <v>2161.045968213378</v>
       </c>
       <c r="W14" t="n">
-        <v>1688.814156990877</v>
+        <v>2161.045968213378</v>
       </c>
       <c r="X14" t="n">
-        <v>1535.733206765892</v>
+        <v>1867.813756646346</v>
       </c>
       <c r="Y14" t="n">
-        <v>1225.827421484127</v>
+        <v>1557.907971364581</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>950.4747343582111</v>
+        <v>851.9731697152597</v>
       </c>
       <c r="C15" t="n">
-        <v>776.0217050770841</v>
+        <v>677.5201404341327</v>
       </c>
       <c r="D15" t="n">
-        <v>627.0872954158328</v>
+        <v>528.5857307728814</v>
       </c>
       <c r="E15" t="n">
-        <v>467.8498404103773</v>
+        <v>429.3035134117953</v>
       </c>
       <c r="F15" t="n">
-        <v>321.3152824372622</v>
+        <v>282.7689554386802</v>
       </c>
       <c r="G15" t="n">
-        <v>184.0876102541314</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H15" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J15" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K15" t="n">
-        <v>548.3928263393643</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L15" t="n">
-        <v>917.9910073910053</v>
+        <v>731.1045614300155</v>
       </c>
       <c r="M15" t="n">
-        <v>1150.563852458271</v>
+        <v>963.6774064972809</v>
       </c>
       <c r="N15" t="n">
-        <v>1403.700853608115</v>
+        <v>1216.814407647125</v>
       </c>
       <c r="O15" t="n">
-        <v>1613.051960134166</v>
+        <v>1613.051960134165</v>
       </c>
       <c r="P15" t="n">
-        <v>2077.019754551161</v>
+        <v>2077.019754551159</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R15" t="n">
-        <v>2326.629995268227</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S15" t="n">
-        <v>2181.133062767424</v>
+        <v>2269.20878283799</v>
       </c>
       <c r="T15" t="n">
-        <v>2011.11542183003</v>
+        <v>2073.080950575174</v>
       </c>
       <c r="U15" t="n">
-        <v>1863.224241920615</v>
+        <v>1844.956223971711</v>
       </c>
       <c r="V15" t="n">
-        <v>1628.072133688873</v>
+        <v>1609.804115739969</v>
       </c>
       <c r="W15" t="n">
-        <v>1454.068323654718</v>
+        <v>1355.566759011767</v>
       </c>
       <c r="X15" t="n">
-        <v>1326.450370143233</v>
+        <v>1147.715258806234</v>
       </c>
       <c r="Y15" t="n">
-        <v>1118.690071378279</v>
+        <v>1020.188506735328</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.122948543356</v>
+        <v>539.1229485433553</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094965</v>
+        <v>450.4203123094958</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912082</v>
+        <v>380.5372195912075</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028626</v>
+        <v>312.8576727028619</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989997</v>
+        <v>246.2012718989989</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326182</v>
+        <v>158.0071538326179</v>
       </c>
       <c r="H16" t="n">
-        <v>85.5791326883935</v>
+        <v>85.5791326883932</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2234082279187</v>
+        <v>120.2234082279186</v>
       </c>
       <c r="K16" t="n">
-        <v>320.3114555080078</v>
+        <v>320.311455508008</v>
       </c>
       <c r="L16" t="n">
         <v>609.8904447105128</v>
@@ -5473,13 +5473,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W16" t="n">
-        <v>928.8529033330008</v>
+        <v>928.8529033330004</v>
       </c>
       <c r="X16" t="n">
-        <v>781.0968991290308</v>
+        <v>781.0968991290301</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.5378666795482</v>
+        <v>640.5378666795475</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1156.994340046476</v>
+        <v>1338.709817470403</v>
       </c>
       <c r="C17" t="n">
-        <v>948.4989164941587</v>
+        <v>1130.214393918086</v>
       </c>
       <c r="D17" t="n">
-        <v>932.4157886994319</v>
+        <v>932.4157886994308</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892825</v>
+        <v>707.0946294892815</v>
       </c>
       <c r="F17" t="n">
-        <v>456.5758180877698</v>
+        <v>456.5758180877688</v>
       </c>
       <c r="G17" t="n">
-        <v>200.354581330217</v>
+        <v>200.3545813302169</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J17" t="n">
         <v>268.5576303040251</v>
       </c>
       <c r="K17" t="n">
-        <v>604.5264307378735</v>
+        <v>721.8253333671896</v>
       </c>
       <c r="L17" t="n">
-        <v>805.6371221970194</v>
+        <v>1124.217843286785</v>
       </c>
       <c r="M17" t="n">
-        <v>1061.080953771158</v>
+        <v>1379.661674860924</v>
       </c>
       <c r="N17" t="n">
-        <v>1325.271941977302</v>
+        <v>1643.852663067068</v>
       </c>
       <c r="O17" t="n">
-        <v>1561.404739318495</v>
+        <v>1879.985460408261</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.01833895467</v>
+        <v>2047.018338954668</v>
       </c>
       <c r="Q17" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R17" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S17" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T17" t="n">
-        <v>2281.887999758019</v>
+        <v>2281.887999758017</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.6953460207</v>
+        <v>2281.887999758017</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065224</v>
+        <v>2199.815029489152</v>
       </c>
       <c r="W17" t="n">
-        <v>1825.797990183205</v>
+        <v>2007.513467607132</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.79932531022</v>
+        <v>1794.514802734147</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.127086722503</v>
+        <v>1564.84256414643</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>683.6639029506459</v>
+        <v>837.0030088279671</v>
       </c>
       <c r="C18" t="n">
-        <v>638.7940328939533</v>
+        <v>662.5499795468401</v>
       </c>
       <c r="D18" t="n">
-        <v>489.8596232327019</v>
+        <v>513.6155698855888</v>
       </c>
       <c r="E18" t="n">
-        <v>330.6221682272464</v>
+        <v>354.3781148801333</v>
       </c>
       <c r="F18" t="n">
-        <v>184.0876102541314</v>
+        <v>282.7689554386802</v>
       </c>
       <c r="G18" t="n">
-        <v>184.0876102541314</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J18" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K18" t="n">
-        <v>548.3928263393643</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L18" t="n">
-        <v>917.9910073910053</v>
+        <v>917.9910073910037</v>
       </c>
       <c r="M18" t="n">
-        <v>1150.563852458271</v>
+        <v>1150.563852458269</v>
       </c>
       <c r="N18" t="n">
-        <v>1403.700853608115</v>
+        <v>1403.700853608113</v>
       </c>
       <c r="O18" t="n">
-        <v>1613.051960134166</v>
+        <v>1613.051960134165</v>
       </c>
       <c r="P18" t="n">
-        <v>2077.019754551161</v>
+        <v>2077.019754551159</v>
       </c>
       <c r="Q18" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R18" t="n">
-        <v>2326.629995268227</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S18" t="n">
-        <v>2181.133062767424</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T18" t="n">
-        <v>1985.005230504608</v>
+        <v>2138.344336381929</v>
       </c>
       <c r="U18" t="n">
-        <v>1756.880503901145</v>
+        <v>1910.219609778466</v>
       </c>
       <c r="V18" t="n">
-        <v>1521.728395669402</v>
+        <v>1675.067501546723</v>
       </c>
       <c r="W18" t="n">
-        <v>1267.491038941201</v>
+        <v>1420.830144818522</v>
       </c>
       <c r="X18" t="n">
-        <v>1059.639538735668</v>
+        <v>1212.978644612989</v>
       </c>
       <c r="Y18" t="n">
-        <v>851.879239970714</v>
+        <v>1005.218345848035</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>228.7927421684035</v>
+        <v>117.7856025159075</v>
       </c>
       <c r="C19" t="n">
-        <v>59.85655924049665</v>
+        <v>109.3165129760955</v>
       </c>
       <c r="D19" t="n">
-        <v>59.85655924049665</v>
+        <v>109.3165129760955</v>
       </c>
       <c r="E19" t="n">
-        <v>59.85655924049665</v>
+        <v>54.65001474522859</v>
       </c>
       <c r="F19" t="n">
-        <v>59.85655924049665</v>
+        <v>54.65001474522859</v>
       </c>
       <c r="G19" t="n">
-        <v>51.89598786816291</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="H19" t="n">
-        <v>51.89598786816291</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="I19" t="n">
-        <v>51.89598786816291</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="K19" t="n">
         <v>168.1405915381484</v>
       </c>
       <c r="L19" t="n">
-        <v>379.0826816258174</v>
+        <v>379.0826816258175</v>
       </c>
       <c r="M19" t="n">
-        <v>611.8806624543171</v>
+        <v>611.8806624543172</v>
       </c>
       <c r="N19" t="n">
-        <v>844.5778440496398</v>
+        <v>844.5778440496399</v>
       </c>
       <c r="O19" t="n">
         <v>1043.495058868663</v>
@@ -5695,28 +5695,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R19" t="n">
-        <v>1085.884695843493</v>
+        <v>1208.306061780872</v>
       </c>
       <c r="S19" t="n">
-        <v>881.567034078703</v>
+        <v>1164.455493404177</v>
       </c>
       <c r="T19" t="n">
-        <v>817.170519095239</v>
+        <v>939.5918850326179</v>
       </c>
       <c r="U19" t="n">
-        <v>688.4952095288784</v>
+        <v>650.4494820781625</v>
       </c>
       <c r="V19" t="n">
-        <v>594.2778147110863</v>
+        <v>556.2320872603706</v>
       </c>
       <c r="W19" t="n">
-        <v>465.3277380622205</v>
+        <v>266.81491722341</v>
       </c>
       <c r="X19" t="n">
-        <v>310.2995993659837</v>
+        <v>199.2924597134875</v>
       </c>
       <c r="Y19" t="n">
-        <v>249.9741136105484</v>
+        <v>138.9669739580523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1130.214393918087</v>
       </c>
       <c r="D20" t="n">
-        <v>932.4157886994317</v>
+        <v>932.4157886994315</v>
       </c>
       <c r="E20" t="n">
-        <v>707.0946294892824</v>
+        <v>707.0946294892822</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877697</v>
+        <v>456.5758180877695</v>
       </c>
       <c r="G20" t="n">
-        <v>200.354581330217</v>
+        <v>200.3545813302169</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J20" t="n">
         <v>268.5576303040251</v>
       </c>
       <c r="K20" t="n">
-        <v>604.5264307378735</v>
+        <v>579.9337098920154</v>
       </c>
       <c r="L20" t="n">
-        <v>805.6371221970194</v>
+        <v>781.0444013511614</v>
       </c>
       <c r="M20" t="n">
-        <v>1061.080953771158</v>
+        <v>1036.4882329253</v>
       </c>
       <c r="N20" t="n">
-        <v>1325.271941977302</v>
+        <v>1300.679221131444</v>
       </c>
       <c r="O20" t="n">
-        <v>1561.404739318495</v>
+        <v>1536.812018472637</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.01833895467</v>
+        <v>2022.425618108812</v>
       </c>
       <c r="Q20" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.879447798889</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="T20" t="n">
-        <v>2293.007683226472</v>
+        <v>2281.887999758017</v>
       </c>
       <c r="U20" t="n">
-        <v>2199.815029489152</v>
+        <v>2188.695346020698</v>
       </c>
       <c r="V20" t="n">
-        <v>2199.815029489152</v>
+        <v>2018.099552065222</v>
       </c>
       <c r="W20" t="n">
-        <v>2007.513467607133</v>
+        <v>1825.797990183203</v>
       </c>
       <c r="X20" t="n">
-        <v>1794.514802734148</v>
+        <v>1794.514802734147</v>
       </c>
       <c r="Y20" t="n">
         <v>1564.842564146431</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>683.6639029506459</v>
+        <v>950.4747343582109</v>
       </c>
       <c r="C21" t="n">
-        <v>509.2108736695189</v>
+        <v>776.0217050770839</v>
       </c>
       <c r="D21" t="n">
-        <v>360.2764640082677</v>
+        <v>627.0872954158326</v>
       </c>
       <c r="E21" t="n">
-        <v>201.0390090028122</v>
+        <v>467.8498404103772</v>
       </c>
       <c r="F21" t="n">
-        <v>54.50445102969715</v>
+        <v>321.3152824372622</v>
       </c>
       <c r="G21" t="n">
-        <v>46.68944337289494</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H21" t="n">
-        <v>46.68944337289494</v>
+        <v>85.23577037147683</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J21" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K21" t="n">
-        <v>286.5722416969116</v>
+        <v>368.1473304499282</v>
       </c>
       <c r="L21" t="n">
-        <v>836.415918637987</v>
+        <v>917.9910073910037</v>
       </c>
       <c r="M21" t="n">
-        <v>1414.197780377562</v>
+        <v>1150.563852458269</v>
       </c>
       <c r="N21" t="n">
-        <v>1667.334781527406</v>
+        <v>1403.700853608113</v>
       </c>
       <c r="O21" t="n">
-        <v>1876.685888053458</v>
+        <v>1613.051960134165</v>
       </c>
       <c r="P21" t="n">
-        <v>2077.019754551161</v>
+        <v>2077.019754551159</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268227</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S21" t="n">
-        <v>2181.133062767424</v>
+        <v>2181.133062767423</v>
       </c>
       <c r="T21" t="n">
-        <v>1985.005230504608</v>
+        <v>2145.472323892701</v>
       </c>
       <c r="U21" t="n">
-        <v>1756.880503901145</v>
+        <v>2023.69133530871</v>
       </c>
       <c r="V21" t="n">
-        <v>1521.728395669402</v>
+        <v>1788.539227076967</v>
       </c>
       <c r="W21" t="n">
-        <v>1267.491038941201</v>
+        <v>1534.301870348766</v>
       </c>
       <c r="X21" t="n">
-        <v>1059.639538735668</v>
+        <v>1326.450370143233</v>
       </c>
       <c r="Y21" t="n">
-        <v>851.879239970714</v>
+        <v>1118.690071378279</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7197892920965</v>
+        <v>361.1488372797694</v>
       </c>
       <c r="C22" t="n">
-        <v>430.2506997522844</v>
+        <v>352.6797477399574</v>
       </c>
       <c r="D22" t="n">
-        <v>280.1340603399487</v>
+        <v>202.5631083276217</v>
       </c>
       <c r="E22" t="n">
-        <v>280.1340603399487</v>
+        <v>54.65001474522859</v>
       </c>
       <c r="F22" t="n">
-        <v>280.1340603399487</v>
+        <v>54.65001474522859</v>
       </c>
       <c r="G22" t="n">
-        <v>272.173488967615</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="H22" t="n">
-        <v>119.5119211293429</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="I22" t="n">
-        <v>51.89598786816291</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289491</v>
       </c>
       <c r="K22" t="n">
         <v>168.1405915381484</v>
       </c>
       <c r="L22" t="n">
-        <v>379.0826816258174</v>
+        <v>379.0826816258175</v>
       </c>
       <c r="M22" t="n">
-        <v>611.8806624543171</v>
+        <v>611.8806624543172</v>
       </c>
       <c r="N22" t="n">
-        <v>844.5778440496398</v>
+        <v>844.5778440496399</v>
       </c>
       <c r="O22" t="n">
         <v>1043.495058868663</v>
@@ -5935,25 +5935,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S22" t="n">
-        <v>1003.988400016082</v>
+        <v>1164.455493404177</v>
       </c>
       <c r="T22" t="n">
-        <v>939.5918850326176</v>
+        <v>1100.058978420713</v>
       </c>
       <c r="U22" t="n">
-        <v>810.916575466257</v>
+        <v>971.3836688543524</v>
       </c>
       <c r="V22" t="n">
-        <v>716.6991806484649</v>
+        <v>716.6991806484656</v>
       </c>
       <c r="W22" t="n">
-        <v>587.7491039995991</v>
+        <v>587.7491039995998</v>
       </c>
       <c r="X22" t="n">
-        <v>520.2266464896766</v>
+        <v>520.2266464896774</v>
       </c>
       <c r="Y22" t="n">
-        <v>459.9011607342413</v>
+        <v>459.9011607342422</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1133.922873049188</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305326</v>
+        <v>936.1242678305325</v>
       </c>
       <c r="E23" t="n">
         <v>710.8031086203832</v>
@@ -5978,7 +5978,7 @@
         <v>460.2842972188705</v>
       </c>
       <c r="G23" t="n">
-        <v>204.0630604613176</v>
+        <v>204.0630604613175</v>
       </c>
       <c r="H23" t="n">
         <v>50.39792250399553</v>
@@ -5990,25 +5990,25 @@
         <v>272.2661094351257</v>
       </c>
       <c r="K23" t="n">
-        <v>404.629854052837</v>
+        <v>725.5338124982902</v>
       </c>
       <c r="L23" t="n">
-        <v>1019.225147916929</v>
+        <v>926.6445039574362</v>
       </c>
       <c r="M23" t="n">
-        <v>1274.668979491067</v>
+        <v>1182.088335531575</v>
       </c>
       <c r="N23" t="n">
-        <v>1538.859967697212</v>
+        <v>1446.279323737719</v>
       </c>
       <c r="O23" t="n">
-        <v>1774.992765038405</v>
+        <v>2040.816696117436</v>
       </c>
       <c r="P23" t="n">
-        <v>2232.442295509699</v>
+        <v>2207.849574663843</v>
       </c>
       <c r="Q23" t="n">
-        <v>2519.896125199777</v>
+        <v>2495.303404353921</v>
       </c>
       <c r="R23" t="n">
         <v>2519.896125199777</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>954.1832134893117</v>
+        <v>869.0878595056754</v>
       </c>
       <c r="C24" t="n">
-        <v>779.7301842081847</v>
+        <v>694.6348302245484</v>
       </c>
       <c r="D24" t="n">
-        <v>630.7957745469334</v>
+        <v>545.7004205632971</v>
       </c>
       <c r="E24" t="n">
-        <v>471.5583195414779</v>
+        <v>386.4629655578416</v>
       </c>
       <c r="F24" t="n">
-        <v>325.0237615683628</v>
+        <v>239.9284075847266</v>
       </c>
       <c r="G24" t="n">
-        <v>187.796089385232</v>
+        <v>102.7007354015958</v>
       </c>
       <c r="H24" t="n">
-        <v>88.94424950257746</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="I24" t="n">
         <v>50.39792250399553</v>
@@ -6069,49 +6069,49 @@
         <v>188.8477150079298</v>
       </c>
       <c r="K24" t="n">
-        <v>552.1013054704649</v>
+        <v>290.2807208280122</v>
       </c>
       <c r="L24" t="n">
-        <v>1101.94498241154</v>
+        <v>840.1243977690878</v>
       </c>
       <c r="M24" t="n">
-        <v>1335.9878090133</v>
+        <v>1463.798688756032</v>
       </c>
       <c r="N24" t="n">
-        <v>1589.124810163145</v>
+        <v>1716.935689905877</v>
       </c>
       <c r="O24" t="n">
-        <v>1798.475916689196</v>
+        <v>1926.286796431928</v>
       </c>
       <c r="P24" t="n">
-        <v>2262.44371110619</v>
+        <v>2390.254590848922</v>
       </c>
       <c r="Q24" t="n">
         <v>2519.896125199777</v>
       </c>
       <c r="R24" t="n">
-        <v>2519.896125199777</v>
+        <v>2512.053951823257</v>
       </c>
       <c r="S24" t="n">
-        <v>2451.652373306089</v>
+        <v>2366.557019322454</v>
       </c>
       <c r="T24" t="n">
-        <v>2255.524541043273</v>
+        <v>2170.429187059637</v>
       </c>
       <c r="U24" t="n">
-        <v>2027.399814439811</v>
+        <v>1942.304460456174</v>
       </c>
       <c r="V24" t="n">
-        <v>1792.247706208068</v>
+        <v>1707.152352224432</v>
       </c>
       <c r="W24" t="n">
-        <v>1538.010349479866</v>
+        <v>1452.91499549623</v>
       </c>
       <c r="X24" t="n">
-        <v>1330.158849274334</v>
+        <v>1245.063495290697</v>
       </c>
       <c r="Y24" t="n">
-        <v>1122.39855050938</v>
+        <v>1037.303196525743</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>363.8341703263874</v>
+        <v>281.9611750351029</v>
       </c>
       <c r="C25" t="n">
-        <v>355.3650807865754</v>
+        <v>273.492085495291</v>
       </c>
       <c r="D25" t="n">
-        <v>205.2484413742396</v>
+        <v>273.492085495291</v>
       </c>
       <c r="E25" t="n">
-        <v>205.2484413742396</v>
+        <v>273.492085495291</v>
       </c>
       <c r="F25" t="n">
-        <v>58.35849387632927</v>
+        <v>273.492085495291</v>
       </c>
       <c r="G25" t="n">
-        <v>50.39792250399553</v>
+        <v>105.0644207348624</v>
       </c>
       <c r="H25" t="n">
         <v>50.39792250399553</v>
@@ -6148,22 +6148,22 @@
         <v>50.39792250399553</v>
       </c>
       <c r="K25" t="n">
-        <v>171.8490706692489</v>
+        <v>171.849070669249</v>
       </c>
       <c r="L25" t="n">
-        <v>382.791160756918</v>
+        <v>382.7911607569181</v>
       </c>
       <c r="M25" t="n">
-        <v>615.5891415854176</v>
+        <v>615.5891415854178</v>
       </c>
       <c r="N25" t="n">
-        <v>848.2863231807403</v>
+        <v>848.2863231807405</v>
       </c>
       <c r="O25" t="n">
-        <v>1047.203537999763</v>
+        <v>1047.203537999764</v>
       </c>
       <c r="P25" t="n">
-        <v>1193.890897059297</v>
+        <v>1193.890897059298</v>
       </c>
       <c r="Q25" t="n">
         <v>1212.014540911973</v>
@@ -6172,25 +6172,25 @@
         <v>1212.014540911973</v>
       </c>
       <c r="S25" t="n">
-        <v>1168.163972535277</v>
+        <v>1007.696879147182</v>
       </c>
       <c r="T25" t="n">
-        <v>1103.767457551813</v>
+        <v>782.8332707756235</v>
       </c>
       <c r="U25" t="n">
-        <v>975.0921479854526</v>
+        <v>654.157961209263</v>
       </c>
       <c r="V25" t="n">
-        <v>880.8747531676605</v>
+        <v>559.9405663914711</v>
       </c>
       <c r="W25" t="n">
-        <v>673.3305784219849</v>
+        <v>430.9904897426053</v>
       </c>
       <c r="X25" t="n">
-        <v>605.8081209120623</v>
+        <v>363.4680322326829</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.0155417685323</v>
+        <v>303.1425464772477</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.021482161254</v>
+        <v>1871.021482161256</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.29251191489</v>
+        <v>1582.292511914892</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.260360002187</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E26" t="n">
-        <v>998.7056540979902</v>
+        <v>998.7056540979918</v>
       </c>
       <c r="F26" t="n">
-        <v>667.9532960024301</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4985125508312</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946172</v>
+        <v>97.59982789946163</v>
       </c>
       <c r="I26" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J26" t="n">
         <v>128.0028004044475</v>
       </c>
       <c r="K26" t="n">
-        <v>581.2705034676119</v>
+        <v>581.270503467612</v>
       </c>
       <c r="L26" t="n">
         <v>1195.865797331704</v>
       </c>
       <c r="M26" t="n">
-        <v>1896.328027063746</v>
+        <v>1896.328027063747</v>
       </c>
       <c r="N26" t="n">
         <v>2593.492470437755</v>
@@ -6242,13 +6242,13 @@
         <v>3206.617447229066</v>
       </c>
       <c r="P26" t="n">
-        <v>3599.751135746748</v>
+        <v>3599.751135746747</v>
       </c>
       <c r="Q26" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="R26" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="S26" t="n">
         <v>3610.134137617859</v>
@@ -6257,19 +6257,19 @@
         <v>3477.316422037084</v>
       </c>
       <c r="U26" t="n">
-        <v>3303.890221605716</v>
+        <v>3303.890221605717</v>
       </c>
       <c r="V26" t="n">
-        <v>3053.060880956193</v>
+        <v>3053.060880956194</v>
       </c>
       <c r="W26" t="n">
-        <v>2780.525772380126</v>
+        <v>2780.525772380127</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813093</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y26" t="n">
-        <v>2177.387775531329</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J27" t="n">
-        <v>87.15993001059994</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K27" t="n">
-        <v>450.4135204731351</v>
+        <v>575.24364546014</v>
       </c>
       <c r="L27" t="n">
-        <v>1000.257197414211</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M27" t="n">
-        <v>1262.278321761139</v>
+        <v>1357.660167468481</v>
       </c>
       <c r="N27" t="n">
-        <v>1515.415322910983</v>
+        <v>1610.797168618325</v>
       </c>
       <c r="O27" t="n">
-        <v>2114.690125520997</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P27" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q27" t="n">
         <v>2628.133819173087</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641308</v>
+        <v>565.9737676641307</v>
       </c>
       <c r="C28" t="n">
         <v>477.2711314302713</v>
@@ -6367,31 +6367,31 @@
         <v>407.388038711983</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236372</v>
+        <v>339.7084918236374</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197743</v>
+        <v>273.0520910197745</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533931</v>
+        <v>184.8579729533934</v>
       </c>
       <c r="H28" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I28" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367038</v>
       </c>
       <c r="J28" t="n">
-        <v>147.0742273486942</v>
+        <v>147.0742273486938</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287828</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312884</v>
+        <v>636.7412638312878</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746238</v>
+        <v>948.1761437746233</v>
       </c>
       <c r="N28" t="n">
         <v>1259.510224484782</v>
@@ -6412,22 +6412,22 @@
         <v>1692.877205246448</v>
       </c>
       <c r="T28" t="n">
-        <v>1548.247143568937</v>
+        <v>1548.247143568936</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.338287308528</v>
       </c>
       <c r="V28" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537758</v>
+        <v>955.7037224537759</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498058</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003232</v>
+        <v>667.3886858003229</v>
       </c>
     </row>
     <row r="29">
@@ -6446,43 +6446,43 @@
         <v>1304.260360002189</v>
       </c>
       <c r="E29" t="n">
-        <v>998.7056540979922</v>
+        <v>998.7056540979921</v>
       </c>
       <c r="F29" t="n">
-        <v>667.9532960024319</v>
+        <v>667.953296002432</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4985125508311</v>
+        <v>331.4985125508318</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946167</v>
+        <v>97.59982789946164</v>
       </c>
       <c r="I29" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J29" t="n">
-        <v>295.4084494248005</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K29" t="n">
-        <v>748.6761524879649</v>
+        <v>748.6761524879651</v>
       </c>
       <c r="L29" t="n">
         <v>1363.271446352057</v>
       </c>
       <c r="M29" t="n">
-        <v>1618.715277926195</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N29" t="n">
-        <v>2315.879721300204</v>
+        <v>2760.898119458108</v>
       </c>
       <c r="O29" t="n">
-        <v>2929.004698091515</v>
+        <v>3374.023096249419</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.966574147586</v>
+        <v>3541.055974795826</v>
       </c>
       <c r="Q29" t="n">
-        <v>3652.420403837664</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="R29" t="n">
         <v>3677.01312468352</v>
@@ -6540,25 +6540,25 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J30" t="n">
-        <v>87.15993001059994</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K30" t="n">
-        <v>188.5929358306823</v>
+        <v>575.24364546014</v>
       </c>
       <c r="L30" t="n">
-        <v>738.4366127717577</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M30" t="n">
-        <v>1432.057470951523</v>
+        <v>1357.660167468481</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.194472101367</v>
+        <v>1610.797168618325</v>
       </c>
       <c r="O30" t="n">
-        <v>2284.469274711381</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P30" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q30" t="n">
         <v>2628.133819173087</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641312</v>
+        <v>565.9737676641311</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302717</v>
+        <v>477.2711314302716</v>
       </c>
       <c r="D31" t="n">
         <v>407.3880387119834</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236378</v>
+        <v>339.7084918236377</v>
       </c>
       <c r="F31" t="n">
         <v>273.0520910197748</v>
       </c>
       <c r="G31" t="n">
-        <v>184.8579729533937</v>
+        <v>184.8579729533936</v>
       </c>
       <c r="H31" t="n">
         <v>112.429951809169</v>
@@ -6619,7 +6619,7 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J31" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486942</v>
       </c>
       <c r="K31" t="n">
         <v>347.1622746287835</v>
@@ -6658,13 +6658,13 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W31" t="n">
-        <v>955.703722453776</v>
+        <v>955.7037224537762</v>
       </c>
       <c r="X31" t="n">
-        <v>807.947718249806</v>
+        <v>807.9477182498061</v>
       </c>
       <c r="Y31" t="n">
-        <v>667.3886858003234</v>
+        <v>667.3886858003233</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>1582.292511914892</v>
       </c>
       <c r="D32" t="n">
-        <v>1304.260360002188</v>
+        <v>1304.260360002189</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979916</v>
+        <v>998.705654097992</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024314</v>
+        <v>667.9532960024318</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508312</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H32" t="n">
-        <v>97.59982789946167</v>
+        <v>97.59982789946173</v>
       </c>
       <c r="I32" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J32" t="n">
-        <v>202.323227982767</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K32" t="n">
-        <v>655.5909310459315</v>
+        <v>748.6761524879651</v>
       </c>
       <c r="L32" t="n">
-        <v>1270.186224910023</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M32" t="n">
-        <v>1970.648454642066</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.812898016075</v>
+        <v>2760.898119458108</v>
       </c>
       <c r="O32" t="n">
-        <v>2903.945695357268</v>
+        <v>3374.023096249419</v>
       </c>
       <c r="P32" t="n">
-        <v>3389.559294993443</v>
+        <v>3541.055974795826</v>
       </c>
       <c r="Q32" t="n">
         <v>3677.01312468352</v>
@@ -6731,7 +6731,7 @@
         <v>3477.316422037085</v>
       </c>
       <c r="U32" t="n">
-        <v>3303.890221605717</v>
+        <v>3303.890221605718</v>
       </c>
       <c r="V32" t="n">
         <v>3053.060880956194</v>
@@ -6743,7 +6743,7 @@
         <v>2487.293560813095</v>
       </c>
       <c r="Y32" t="n">
-        <v>2177.38777553133</v>
+        <v>2177.387775531331</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J33" t="n">
-        <v>116.6082092902628</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K33" t="n">
-        <v>479.861799752798</v>
+        <v>575.24364546014</v>
       </c>
       <c r="L33" t="n">
-        <v>1029.705476693873</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M33" t="n">
-        <v>1262.278321761139</v>
+        <v>1357.660167468481</v>
       </c>
       <c r="N33" t="n">
-        <v>1515.415322910983</v>
+        <v>1610.797168618325</v>
       </c>
       <c r="O33" t="n">
-        <v>2114.690125520997</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P33" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.133819173087</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641314</v>
+        <v>565.9737676641316</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302719</v>
+        <v>477.2711314302721</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119836</v>
+        <v>407.3880387119838</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236379</v>
+        <v>339.708491823638</v>
       </c>
       <c r="F34" t="n">
         <v>273.052091019775</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533939</v>
+        <v>184.8579729533938</v>
       </c>
       <c r="H34" t="n">
-        <v>112.429951809169</v>
+        <v>112.4299518091691</v>
       </c>
       <c r="I34" t="n">
         <v>73.5402624936704</v>
@@ -6862,46 +6862,46 @@
         <v>347.1622746287834</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312884</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746239</v>
+        <v>948.1761437746238</v>
       </c>
       <c r="N34" t="n">
-        <v>1259.510224484783</v>
+        <v>1259.510224484782</v>
       </c>
       <c r="O34" t="n">
         <v>1537.064338418641</v>
       </c>
       <c r="P34" t="n">
-        <v>1762.388596593011</v>
+        <v>1762.388596593012</v>
       </c>
       <c r="Q34" t="n">
         <v>1859.149139560523</v>
       </c>
       <c r="R34" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.961320317192</v>
       </c>
       <c r="S34" t="n">
         <v>1692.877205246449</v>
       </c>
       <c r="T34" t="n">
-        <v>1548.247143568937</v>
+        <v>1548.247143568938</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.33828730853</v>
       </c>
       <c r="V34" t="n">
         <v>1164.88734579669</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537765</v>
+        <v>955.7037224537767</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498063</v>
+        <v>807.9477182498067</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003236</v>
+        <v>667.388685800324</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1204.238717623144</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761015</v>
+        <v>993.0855527761013</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375651</v>
+        <v>754.4098339375648</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076653</v>
+        <v>490.5364629076651</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
@@ -6938,22 +6938,22 @@
         <v>275.8091558671467</v>
       </c>
       <c r="K35" t="n">
-        <v>408.1729004848581</v>
+        <v>670.3150093230158</v>
       </c>
       <c r="L35" t="n">
-        <v>764.8848979760409</v>
+        <v>1284.910303187108</v>
       </c>
       <c r="M35" t="n">
-        <v>1020.328729550179</v>
+        <v>1952.429793770313</v>
       </c>
       <c r="N35" t="n">
-        <v>1687.848220133384</v>
+        <v>2216.620781976458</v>
       </c>
       <c r="O35" t="n">
-        <v>1923.981017474577</v>
+        <v>2452.753579317651</v>
       </c>
       <c r="P35" t="n">
-        <v>2409.594617110752</v>
+        <v>2619.786457864058</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.048446800829</v>
@@ -7014,25 +7014,25 @@
         <v>53.94096893601659</v>
       </c>
       <c r="J36" t="n">
-        <v>97.00891573260958</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K36" t="n">
-        <v>460.2625061951447</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L36" t="n">
-        <v>1010.10618313622</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M36" t="n">
-        <v>1242.679028203486</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N36" t="n">
-        <v>1495.81602935333</v>
+        <v>1591.197875060671</v>
       </c>
       <c r="O36" t="n">
-        <v>2095.090831963344</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P36" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.534525615434</v>
@@ -7072,25 +7072,25 @@
         <v>258.7525269137899</v>
       </c>
       <c r="C37" t="n">
-        <v>89.81634398588304</v>
+        <v>236.9288777455908</v>
       </c>
       <c r="D37" t="n">
-        <v>86.81223833325508</v>
+        <v>86.81223833325505</v>
       </c>
       <c r="E37" t="n">
-        <v>86.01167851056974</v>
+        <v>86.01167851056971</v>
       </c>
       <c r="F37" t="n">
-        <v>86.01167851056974</v>
+        <v>86.01167851056971</v>
       </c>
       <c r="G37" t="n">
-        <v>64.69654750984893</v>
+        <v>64.6965475098489</v>
       </c>
       <c r="H37" t="n">
-        <v>59.14751343128456</v>
+        <v>59.14751343128454</v>
       </c>
       <c r="I37" t="n">
-        <v>59.14751343128456</v>
+        <v>59.14751343128454</v>
       </c>
       <c r="J37" t="n">
         <v>53.94096893601659</v>
@@ -7102,10 +7102,10 @@
         <v>386.3342071889391</v>
       </c>
       <c r="M37" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174388</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127615</v>
       </c>
       <c r="O37" t="n">
         <v>1050.746584431784</v>
@@ -7117,16 +7117,16 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R37" t="n">
-        <v>1093.136221406615</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S37" t="n">
-        <v>1035.931093401533</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T37" t="n">
-        <v>958.1800187896814</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U37" t="n">
-        <v>697.7221112298857</v>
+        <v>844.8346449895935</v>
       </c>
       <c r="V37" t="n">
         <v>590.1501567837066</v>
@@ -7172,28 +7172,28 @@
         <v>53.94096893601661</v>
       </c>
       <c r="J38" t="n">
-        <v>275.8091558671467</v>
+        <v>136.8428263806738</v>
       </c>
       <c r="K38" t="n">
-        <v>729.0768589303111</v>
+        <v>590.1105294438383</v>
       </c>
       <c r="L38" t="n">
-        <v>930.187550389457</v>
+        <v>791.2212209029843</v>
       </c>
       <c r="M38" t="n">
-        <v>1185.631381963595</v>
+        <v>1046.665052477123</v>
       </c>
       <c r="N38" t="n">
-        <v>1449.82237016974</v>
+        <v>1310.856040683267</v>
       </c>
       <c r="O38" t="n">
-        <v>1899.388296628722</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P38" t="n">
-        <v>2385.001896264897</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q38" t="n">
-        <v>2672.455725954974</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="R38" t="n">
         <v>2697.04844680083</v>
@@ -7251,25 +7251,25 @@
         <v>53.94096893601661</v>
       </c>
       <c r="J39" t="n">
-        <v>67.56063645294614</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K39" t="n">
-        <v>168.9936422730285</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L39" t="n">
-        <v>476.0551891404569</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M39" t="n">
-        <v>1143.574679723662</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N39" t="n">
-        <v>1811.094170306868</v>
+        <v>1591.197875060671</v>
       </c>
       <c r="O39" t="n">
-        <v>2410.368972916882</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P39" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.534525615434</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>258.5299406519925</v>
+        <v>405.6424744117003</v>
       </c>
       <c r="C40" t="n">
-        <v>236.7062914837934</v>
+        <v>383.8188252435012</v>
       </c>
       <c r="D40" t="n">
-        <v>233.7021858311654</v>
+        <v>380.8147195908732</v>
       </c>
       <c r="E40" t="n">
         <v>232.9016260084801</v>
@@ -7321,28 +7321,28 @@
         <v>86.01167851056974</v>
       </c>
       <c r="G40" t="n">
-        <v>64.69654750984894</v>
+        <v>64.69654750984893</v>
       </c>
       <c r="H40" t="n">
-        <v>59.14751343128458</v>
+        <v>59.14751343128457</v>
       </c>
       <c r="I40" t="n">
-        <v>59.14751343128458</v>
+        <v>59.14751343128457</v>
       </c>
       <c r="J40" t="n">
         <v>53.94096893601661</v>
       </c>
       <c r="K40" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L40" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M40" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174388</v>
       </c>
       <c r="N40" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127615</v>
       </c>
       <c r="O40" t="n">
         <v>1050.746584431784</v>
@@ -7357,25 +7357,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>1158.352459338911</v>
+        <v>1064.393002534395</v>
       </c>
       <c r="T40" t="n">
-        <v>986.6419279225437</v>
+        <v>986.6419279225438</v>
       </c>
       <c r="U40" t="n">
-        <v>697.4995249680883</v>
+        <v>844.6120587277961</v>
       </c>
       <c r="V40" t="n">
-        <v>589.9275705219092</v>
+        <v>737.040104281617</v>
       </c>
       <c r="W40" t="n">
-        <v>447.6229342446563</v>
+        <v>594.7354680043642</v>
       </c>
       <c r="X40" t="n">
-        <v>366.7459171063468</v>
+        <v>513.8584508660546</v>
       </c>
       <c r="Y40" t="n">
-        <v>293.0658717225244</v>
+        <v>440.1784054822323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1426.088700803847</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.238717623143</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761007</v>
+        <v>993.0855527761018</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375646</v>
+        <v>754.4098339375654</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076651</v>
+        <v>490.5364629076656</v>
       </c>
       <c r="G41" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J41" t="n">
         <v>275.8091558671467</v>
       </c>
       <c r="K41" t="n">
-        <v>729.0768589303111</v>
+        <v>729.0768589303112</v>
       </c>
       <c r="L41" t="n">
-        <v>930.187550389457</v>
+        <v>1143.620679507246</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.631381963595</v>
+        <v>1399.064511081384</v>
       </c>
       <c r="N41" t="n">
-        <v>1449.82237016974</v>
+        <v>1663.255499287529</v>
       </c>
       <c r="O41" t="n">
-        <v>1923.981017474577</v>
+        <v>1899.388296628722</v>
       </c>
       <c r="P41" t="n">
-        <v>2409.594617110752</v>
+        <v>2385.001896264897</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.048446800829</v>
+        <v>2672.455725954974</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T41" t="n">
-        <v>2631.109718285714</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U41" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V41" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W41" t="n">
-        <v>2134.956029825737</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X41" t="n">
-        <v>1908.602805324365</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.576007108261</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H42" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459854</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J42" t="n">
-        <v>67.56063645294613</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K42" t="n">
-        <v>430.8142269154813</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L42" t="n">
-        <v>865.9788852244193</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M42" t="n">
-        <v>1533.498375807625</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N42" t="n">
-        <v>2201.01786639083</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O42" t="n">
-        <v>2410.368972916882</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P42" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.534525615434</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>205.376863696801</v>
+        <v>253.545982418522</v>
       </c>
       <c r="C43" t="n">
-        <v>183.5532145286018</v>
+        <v>231.7223332503228</v>
       </c>
       <c r="D43" t="n">
-        <v>180.5491088759739</v>
+        <v>81.60569383798712</v>
       </c>
       <c r="E43" t="n">
-        <v>179.7485490532885</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="F43" t="n">
-        <v>179.7485490532885</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="G43" t="n">
-        <v>158.4334180525677</v>
+        <v>59.49000301458097</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="K43" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M43" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174388</v>
       </c>
       <c r="N43" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127615</v>
       </c>
       <c r="O43" t="n">
         <v>1050.746584431784</v>
@@ -7597,22 +7597,22 @@
         <v>1158.352459338911</v>
       </c>
       <c r="T43" t="n">
-        <v>933.4888509673522</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U43" t="n">
-        <v>644.3464480128968</v>
+        <v>938.5715155323123</v>
       </c>
       <c r="V43" t="n">
-        <v>536.7744935667176</v>
+        <v>830.9995610861332</v>
       </c>
       <c r="W43" t="n">
-        <v>394.4698572894648</v>
+        <v>541.5823910491727</v>
       </c>
       <c r="X43" t="n">
-        <v>313.5928401511553</v>
+        <v>361.7619588728763</v>
       </c>
       <c r="Y43" t="n">
-        <v>239.9127947673329</v>
+        <v>288.0819134890539</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761014</v>
+        <v>993.0855527761023</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375648</v>
+        <v>754.4098339375657</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076651</v>
+        <v>490.536462907666</v>
       </c>
       <c r="G44" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J44" t="n">
         <v>275.8091558671467</v>
       </c>
       <c r="K44" t="n">
-        <v>729.0768589303111</v>
+        <v>729.0768589303112</v>
       </c>
       <c r="L44" t="n">
-        <v>930.187550389457</v>
+        <v>930.1875503894572</v>
       </c>
       <c r="M44" t="n">
         <v>1185.631381963595</v>
@@ -7661,37 +7661,37 @@
         <v>1449.82237016974</v>
       </c>
       <c r="O44" t="n">
-        <v>1899.388296628721</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P44" t="n">
-        <v>2385.001896264896</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q44" t="n">
-        <v>2672.455725954973</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T44" t="n">
-        <v>2631.109718285715</v>
+        <v>2631.109718285716</v>
       </c>
       <c r="U44" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V44" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W44" t="n">
-        <v>2134.956029825737</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X44" t="n">
-        <v>1908.602805324365</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459854</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J45" t="n">
-        <v>67.56063645294613</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K45" t="n">
-        <v>168.9936422730285</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L45" t="n">
-        <v>351.7053773636794</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M45" t="n">
-        <v>1019.224867946885</v>
+        <v>1424.626209428957</v>
       </c>
       <c r="N45" t="n">
-        <v>1686.74435853009</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O45" t="n">
-        <v>2286.019161140104</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P45" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.534525615434</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>253.3233961567245</v>
+        <v>352.4893974565088</v>
       </c>
       <c r="C46" t="n">
-        <v>231.4997469885254</v>
+        <v>330.6657482883097</v>
       </c>
       <c r="D46" t="n">
-        <v>228.4956413358974</v>
+        <v>327.6616426356817</v>
       </c>
       <c r="E46" t="n">
-        <v>227.6950815132121</v>
+        <v>326.8610828129964</v>
       </c>
       <c r="F46" t="n">
-        <v>80.80513401530175</v>
+        <v>326.8610828129964</v>
       </c>
       <c r="G46" t="n">
-        <v>59.49000301458095</v>
+        <v>158.4334180525678</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="K46" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M46" t="n">
-        <v>619.1321880174387</v>
+        <v>619.1321880174388</v>
       </c>
       <c r="N46" t="n">
-        <v>851.8293696127614</v>
+        <v>851.8293696127615</v>
       </c>
       <c r="O46" t="n">
         <v>1050.746584431784</v>
@@ -7831,25 +7831,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S46" t="n">
-        <v>1158.352459338911</v>
+        <v>1011.239925579203</v>
       </c>
       <c r="T46" t="n">
-        <v>1080.60138472706</v>
+        <v>933.4888509673523</v>
       </c>
       <c r="U46" t="n">
-        <v>938.5715155323123</v>
+        <v>791.4589817726046</v>
       </c>
       <c r="V46" t="n">
-        <v>830.9995610861332</v>
+        <v>683.8870273264255</v>
       </c>
       <c r="W46" t="n">
         <v>541.5823910491727</v>
       </c>
       <c r="X46" t="n">
-        <v>361.5393726110788</v>
+        <v>460.7053739108631</v>
       </c>
       <c r="Y46" t="n">
-        <v>287.8593272272565</v>
+        <v>387.0253285270408</v>
       </c>
     </row>
   </sheetData>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>325.5939698640775</v>
+        <v>325.5939698640773</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>201.8664108489578</v>
+        <v>177.0252786814254</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>348.6959764366762</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>327.9241016057886</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>40.69416617270542</v>
+        <v>188.774187839383</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,22 +8933,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>34.69847272166214</v>
+        <v>325.5939698640771</v>
       </c>
       <c r="N14" t="n">
-        <v>316.7584581145761</v>
+        <v>316.7584581145758</v>
       </c>
       <c r="O14" t="n">
-        <v>345.1000650488707</v>
+        <v>72.58181122675356</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>188.7741878393839</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>188.7741878393821</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>205.6616725415526</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>203.3149681418685</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>188.7741878393839</v>
+        <v>188.774187839382</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>205.6616725415526</v>
+        <v>180.8205403740191</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>82.39907954850153</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>348.6959764366762</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>52.16587175176429</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>362.0248232712363</v>
       </c>
       <c r="P23" t="n">
-        <v>293.3501534594825</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>1.48482983282284</v>
+        <v>395.0519655754336</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>80.97538900581662</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>228.3846565366417</v>
+        <v>228.3846565366403</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>29.74573664612416</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659546</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>271.6454520299641</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>59.28804136456759</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659546</v>
       </c>
       <c r="P30" t="n">
-        <v>146.9686785486404</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>75.07113896799953</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>59.28804136456759</v>
       </c>
       <c r="R32" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>29.74573664612414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659546</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>264.790008927432</v>
       </c>
       <c r="L35" t="n">
-        <v>157.1730363959968</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>416.238039403098</v>
       </c>
       <c r="N35" t="n">
-        <v>407.4025276535967</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>29.7457366461247</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659614</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>28.72658538775768</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>215.5890193108982</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>125.6058704815935</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>439.3400459756971</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>418.5681711448094</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659614</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>215.589019310898</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>240.4301514784288</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>255.0029527457446</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>439.3400459756969</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>418.5681711448092</v>
+        <v>87.43973284659629</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>215.5890193108973</v>
+        <v>240.4301514784293</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545092</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>439.3400459756969</v>
+        <v>87.43973284659626</v>
       </c>
       <c r="N45" t="n">
-        <v>418.5681711448092</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>125.6058704815939</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>275.251830393576</v>
@@ -23270,13 +23270,13 @@
         <v>327.4448345146045</v>
       </c>
       <c r="G11" t="n">
-        <v>141.8548731019739</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>144.7087959686624</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173333</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.3026304363736</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451548</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173333</v>
+        <v>22.05276177357322</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X14" t="n">
-        <v>138.7497487286263</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>179.8983226496896</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>92.26072719994704</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>87.63759544974327</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24020,19 +24020,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>11.00848663376835</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>168.889836015921</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>179.8983226496902</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>910097.0069752412</v>
+        <v>910097.0069752411</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>910097.0069752412</v>
+        <v>910097.0069752409</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1015097.050378697</v>
+        <v>1015097.050378696</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1015097.050378697</v>
+        <v>1015097.050378696</v>
       </c>
     </row>
     <row r="9">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>471083.8947622969</v>
+      </c>
+      <c r="C2" t="n">
         <v>471083.8947622971</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>471083.894762297</v>
       </c>
-      <c r="D2" t="n">
-        <v>471083.8947622971</v>
-      </c>
       <c r="E2" t="n">
-        <v>412482.0714808943</v>
+        <v>412482.0714808935</v>
       </c>
       <c r="F2" t="n">
-        <v>412482.0714808938</v>
+        <v>412482.0714808936</v>
       </c>
       <c r="G2" t="n">
-        <v>463865.0714442866</v>
+        <v>463865.0714442864</v>
       </c>
       <c r="H2" t="n">
-        <v>463865.0714442866</v>
+        <v>463865.0714442862</v>
       </c>
       <c r="I2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719625</v>
       </c>
       <c r="J2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="K2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719625</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719624</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="N2" t="n">
         <v>472099.0176719626</v>
@@ -26353,7 +26353,7 @@
         <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719625</v>
+        <v>472099.0176719626</v>
       </c>
     </row>
     <row r="3">
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168552</v>
+        <v>63544.9689816856</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776751</v>
+        <v>12327.0309877676</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.18005323113</v>
+        <v>75688.18005323107</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168552</v>
+        <v>63544.96898168553</v>
       </c>
       <c r="M3" t="n">
         <v>137355.3289379699</v>
@@ -26424,16 +26424,16 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>154325.0722680948</v>
+        <v>154325.0722680947</v>
       </c>
       <c r="F4" t="n">
-        <v>154325.0722680948</v>
+        <v>154325.0722680947</v>
       </c>
       <c r="G4" t="n">
-        <v>205135.3026775318</v>
+        <v>205135.3026775317</v>
       </c>
       <c r="H4" t="n">
-        <v>205135.3026775318</v>
+        <v>205135.3026775317</v>
       </c>
       <c r="I4" t="n">
         <v>210892.2080352273</v>
@@ -26445,10 +26445,10 @@
         <v>200854.7344410866</v>
       </c>
       <c r="L4" t="n">
-        <v>200854.7344410866</v>
+        <v>200854.7344410865</v>
       </c>
       <c r="M4" t="n">
-        <v>208992.6487667407</v>
+        <v>208992.6487667406</v>
       </c>
       <c r="N4" t="n">
         <v>208992.6487667407</v>
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57243.92344591297</v>
+        <v>57243.92344591295</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591297</v>
+        <v>57243.92344591294</v>
       </c>
       <c r="G5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.6259425646</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.6259425646</v>
       </c>
       <c r="I5" t="n">
         <v>66740.07008220107</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4192.955233523353</v>
+        <v>-4197.36881139164</v>
       </c>
       <c r="C6" t="n">
-        <v>-4192.955233523469</v>
+        <v>-4197.368811391523</v>
       </c>
       <c r="D6" t="n">
-        <v>-4192.955233523353</v>
+        <v>-4197.368811391523</v>
       </c>
       <c r="E6" t="n">
-        <v>-592718.5966481565</v>
+        <v>-592977.8007620313</v>
       </c>
       <c r="F6" t="n">
-        <v>200913.0757668861</v>
+        <v>200653.8716530117</v>
       </c>
       <c r="G6" t="n">
-        <v>131263.1738425046</v>
+        <v>131227.3740762972</v>
       </c>
       <c r="H6" t="n">
-        <v>194808.1428241901</v>
+        <v>194772.3430579826</v>
       </c>
       <c r="I6" t="n">
-        <v>182139.7085667669</v>
+        <v>182139.7085667665</v>
       </c>
       <c r="J6" t="n">
-        <v>117905.5571999427</v>
+        <v>117905.5571999435</v>
       </c>
       <c r="K6" t="n">
-        <v>193593.7372531741</v>
+        <v>193593.7372531745</v>
       </c>
       <c r="L6" t="n">
-        <v>130048.7682714885</v>
+        <v>130048.7682714881</v>
       </c>
       <c r="M6" t="n">
-        <v>57429.73202537969</v>
+        <v>57429.73202537993</v>
       </c>
       <c r="N6" t="n">
         <v>194785.0609633497</v>
@@ -26561,7 +26561,7 @@
         <v>194785.0609633499</v>
       </c>
       <c r="P6" t="n">
-        <v>194785.0609633496</v>
+        <v>194785.0609633497</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G2" t="n">
         <v>158.8624224542139</v>
@@ -26707,13 +26707,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="M2" t="n">
         <v>145.6414084221107</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611864</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611864</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611864</v>
       </c>
       <c r="I4" t="n">
         <v>629.9740312999442</v>
       </c>
       <c r="J4" t="n">
-        <v>919.25328117088</v>
+        <v>919.2532811708797</v>
       </c>
       <c r="K4" t="n">
         <v>919.25328117088</v>
@@ -26826,10 +26826,10 @@
         <v>674.2621117002076</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002076</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.4312112271069</v>
+        <v>79.431211227107</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.4312112271069</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500373</v>
+        <v>66.2101971950038</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973008</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875742</v>
+        <v>46.35598913875776</v>
       </c>
       <c r="J4" t="n">
-        <v>289.2792498709358</v>
+        <v>289.2792498709356</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.6268726905141</v>
+        <v>338.626872690514</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.4312112271069</v>
+        <v>79.431211227107</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="12">
@@ -28175,10 +28175,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.16086372859611</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,13 +28217,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>79.43121122710699</v>
+        <v>67.11943691067944</v>
       </c>
       <c r="T12" t="n">
-        <v>79.43121122710699</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>67.11943691067898</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710608</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710721</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="15">
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>59.35568526792564</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T15" t="n">
-        <v>25.84908941216841</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>79.43121122710699</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>79.43121122710699</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>79.43121122710699</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="17">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>128.28732763219</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28652,16 +28652,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>74.17614454634534</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8553954612995</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.763751642754514</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28722,13 +28722,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>92.31412939801095</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -28743,7 +28743,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,25 +28767,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>158.8624224542139</v>
-      </c>
-      <c r="X19" t="n">
-        <v>72.23179807976268</v>
       </c>
       <c r="Y19" t="n">
         <v>158.8624224542139</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>128.1185378810653</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,10 +28931,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>105.2803006392764</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.8624224542139</v>
+        <v>82.06717996200925</v>
       </c>
       <c r="C22" t="n">
         <v>158.8624224542139</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -28974,13 +28974,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I22" t="n">
-        <v>50.99222972088239</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T22" t="n">
         <v>158.8624224542139</v>
@@ -29016,7 +29016,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="V22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>158.8624224542139</v>
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>46.08353671520371</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.1608637285961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>76.48064880104441</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29199,25 +29199,25 @@
         <v>158.8624224542139</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1349521598894</v>
+        <v>97.01511891133121</v>
       </c>
       <c r="I25" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,10 +29244,10 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>158.8624224542139</v>
@@ -29256,13 +29256,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="W25" t="n">
-        <v>81.05426533837218</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X25" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710704</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710697</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="D32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="E32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="F32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="G32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="H32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="I32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="T32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="U32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="V32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="W32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="X32" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.4312112271067</v>
+        <v>79.43121122710689</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="C34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="D34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="E34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="F34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="G34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="H34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="I34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="J34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="L34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="M34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="N34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="O34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710826</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="R34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="T34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="W34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="X34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710689</v>
       </c>
     </row>
     <row r="35">
@@ -30144,10 +30144,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>145.6414084221107</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
         <v>145.6414084221107</v>
@@ -30198,10 +30198,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39765044071316</v>
+        <v>52.8419065848191</v>
       </c>
       <c r="V37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>145.6414084221107</v>
@@ -30387,7 +30387,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -30429,13 +30429,13 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
+        <v>52.62154618563972</v>
+      </c>
+      <c r="T40" t="n">
         <v>145.6414084221107</v>
       </c>
-      <c r="T40" t="n">
-        <v>52.62154618563955</v>
-      </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V40" t="n">
         <v>145.6414084221107</v>
@@ -30621,7 +30621,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>145.6414084221107</v>
@@ -30633,13 +30633,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="H43" t="n">
-        <v>47.68742753450377</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="I43" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30669,19 +30669,19 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V43" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="W43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450374</v>
       </c>
       <c r="Y43" t="n">
         <v>145.6414084221107</v>
@@ -30864,19 +30864,19 @@
         <v>145.6414084221107</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450374</v>
       </c>
       <c r="I46" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315274</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>145.6414084221107</v>
@@ -30915,10 +30915,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="X46" t="n">
-        <v>47.46706713532427</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="Y46" t="n">
         <v>145.6414084221107</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H11" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I11" t="n">
         <v>107.2257085915656</v>
@@ -31765,7 +31765,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L11" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M11" t="n">
         <v>488.370305524382</v>
@@ -31774,10 +31774,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P11" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q11" t="n">
         <v>300.3481029418955</v>
@@ -31786,7 +31786,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
@@ -31835,25 +31835,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J12" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K12" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L12" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M12" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N12" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O12" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P12" t="n">
         <v>284.1659765693366</v>
@@ -31862,16 +31862,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S12" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T12" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H13" t="n">
         <v>11.09222034755017</v>
@@ -31917,7 +31917,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J13" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
@@ -31935,22 +31935,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P13" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q13" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S13" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H14" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I14" t="n">
         <v>107.2257085915656</v>
@@ -32002,7 +32002,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L14" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M14" t="n">
         <v>488.370305524382</v>
@@ -32011,10 +32011,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P14" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q14" t="n">
         <v>300.3481029418955</v>
@@ -32023,7 +32023,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
@@ -32072,25 +32072,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I15" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J15" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K15" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L15" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M15" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N15" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O15" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P15" t="n">
         <v>284.1659765693366</v>
@@ -32099,16 +32099,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S15" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T15" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H16" t="n">
         <v>11.09222034755017</v>
@@ -32154,7 +32154,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J16" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
@@ -32172,22 +32172,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P16" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q16" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S16" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
@@ -32239,7 +32239,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M17" t="n">
         <v>488.370305524382</v>
@@ -32248,10 +32248,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P17" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q17" t="n">
         <v>300.3481029418955</v>
@@ -32260,7 +32260,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
@@ -32309,25 +32309,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I18" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J18" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K18" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L18" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M18" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N18" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O18" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P18" t="n">
         <v>284.1659765693366</v>
@@ -32336,16 +32336,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S18" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T18" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H19" t="n">
         <v>11.09222034755017</v>
@@ -32391,7 +32391,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J19" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
@@ -32409,22 +32409,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P19" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q19" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S19" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
@@ -32476,7 +32476,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M20" t="n">
         <v>488.370305524382</v>
@@ -32485,10 +32485,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P20" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q20" t="n">
         <v>300.3481029418955</v>
@@ -32497,7 +32497,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
@@ -32546,25 +32546,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I21" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J21" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K21" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L21" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M21" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N21" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O21" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P21" t="n">
         <v>284.1659765693366</v>
@@ -32573,16 +32573,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S21" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T21" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H22" t="n">
         <v>11.09222034755017</v>
@@ -32628,7 +32628,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J22" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
@@ -32646,22 +32646,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P22" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q22" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S22" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
@@ -32713,7 +32713,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M23" t="n">
         <v>488.370305524382</v>
@@ -32722,10 +32722,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P23" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q23" t="n">
         <v>300.3481029418955</v>
@@ -32734,7 +32734,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
@@ -32783,25 +32783,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I24" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J24" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K24" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L24" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M24" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N24" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O24" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P24" t="n">
         <v>284.1659765693366</v>
@@ -32810,16 +32810,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S24" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T24" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H25" t="n">
         <v>11.09222034755017</v>
@@ -32865,7 +32865,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J25" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
@@ -32883,22 +32883,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P25" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q25" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S25" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H26" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I26" t="n">
         <v>107.2257085915656</v>
@@ -32950,7 +32950,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M26" t="n">
         <v>488.370305524382</v>
@@ -32959,10 +32959,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O26" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q26" t="n">
         <v>300.3481029418955</v>
@@ -32971,7 +32971,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T26" t="n">
         <v>12.17509991205702</v>
@@ -33020,25 +33020,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J27" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K27" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L27" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P27" t="n">
         <v>284.1659765693366</v>
@@ -33047,16 +33047,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S27" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T27" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H28" t="n">
         <v>11.09222034755017</v>
@@ -33102,7 +33102,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J28" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K28" t="n">
         <v>144.9474192655328</v>
@@ -33120,22 +33120,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P28" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q28" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R28" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S28" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H29" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I29" t="n">
         <v>107.2257085915656</v>
@@ -33187,7 +33187,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L29" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M29" t="n">
         <v>488.370305524382</v>
@@ -33196,10 +33196,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P29" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q29" t="n">
         <v>300.3481029418955</v>
@@ -33208,7 +33208,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
@@ -33257,25 +33257,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I30" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J30" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K30" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L30" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M30" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N30" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O30" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P30" t="n">
         <v>284.1659765693366</v>
@@ -33284,16 +33284,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S30" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T30" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H31" t="n">
         <v>11.09222034755017</v>
@@ -33339,7 +33339,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J31" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
@@ -33357,22 +33357,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P31" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q31" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S31" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H32" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I32" t="n">
         <v>107.2257085915656</v>
@@ -33424,7 +33424,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M32" t="n">
         <v>488.370305524382</v>
@@ -33433,10 +33433,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P32" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q32" t="n">
         <v>300.3481029418955</v>
@@ -33445,7 +33445,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
@@ -33494,25 +33494,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I33" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J33" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K33" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L33" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N33" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O33" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P33" t="n">
         <v>284.1659765693366</v>
@@ -33521,16 +33521,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S33" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T33" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H34" t="n">
         <v>11.09222034755017</v>
@@ -33576,7 +33576,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J34" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
@@ -33594,22 +33594,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P34" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q34" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S34" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H35" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I35" t="n">
         <v>107.2257085915656</v>
@@ -33661,7 +33661,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M35" t="n">
         <v>488.370305524382</v>
@@ -33670,10 +33670,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P35" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q35" t="n">
         <v>300.3481029418955</v>
@@ -33682,7 +33682,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
@@ -33731,25 +33731,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I36" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J36" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K36" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L36" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M36" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N36" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O36" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P36" t="n">
         <v>284.1659765693366</v>
@@ -33758,16 +33758,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S36" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T36" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H37" t="n">
         <v>11.09222034755017</v>
@@ -33813,7 +33813,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J37" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
@@ -33831,22 +33831,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P37" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q37" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S37" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H38" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I38" t="n">
         <v>107.2257085915656</v>
@@ -33898,7 +33898,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M38" t="n">
         <v>488.370305524382</v>
@@ -33907,10 +33907,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P38" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q38" t="n">
         <v>300.3481029418955</v>
@@ -33919,7 +33919,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
@@ -33968,25 +33968,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I39" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J39" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K39" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L39" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M39" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N39" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O39" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P39" t="n">
         <v>284.1659765693366</v>
@@ -33995,16 +33995,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S39" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T39" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H40" t="n">
         <v>11.09222034755017</v>
@@ -34050,7 +34050,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
@@ -34068,22 +34068,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P40" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q40" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S40" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H41" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I41" t="n">
         <v>107.2257085915656</v>
@@ -34135,7 +34135,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L41" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M41" t="n">
         <v>488.370305524382</v>
@@ -34144,10 +34144,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O41" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P41" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q41" t="n">
         <v>300.3481029418955</v>
@@ -34156,7 +34156,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T41" t="n">
         <v>12.17509991205702</v>
@@ -34205,25 +34205,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I42" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J42" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K42" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L42" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M42" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N42" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O42" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P42" t="n">
         <v>284.1659765693366</v>
@@ -34232,16 +34232,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S42" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T42" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H43" t="n">
         <v>11.09222034755017</v>
@@ -34287,7 +34287,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J43" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K43" t="n">
         <v>144.9474192655328</v>
@@ -34305,22 +34305,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P43" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q43" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R43" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S43" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.78129067094392</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H44" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I44" t="n">
         <v>107.2257085915656</v>
@@ -34372,7 +34372,7 @@
         <v>353.790603184083</v>
       </c>
       <c r="L44" t="n">
-        <v>438.9085275549831</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M44" t="n">
         <v>488.370305524382</v>
@@ -34381,10 +34381,10 @@
         <v>496.2726476432015</v>
       </c>
       <c r="O44" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340029</v>
       </c>
       <c r="P44" t="n">
-        <v>399.9530750950747</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q44" t="n">
         <v>300.3481029418955</v>
@@ -34393,7 +34393,7 @@
         <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413466</v>
       </c>
       <c r="T44" t="n">
         <v>12.17509991205702</v>
@@ -34442,25 +34442,25 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I45" t="n">
-        <v>51.23576912281897</v>
+        <v>51.23576912281898</v>
       </c>
       <c r="J45" t="n">
-        <v>140.5948665827571</v>
+        <v>140.5948665827572</v>
       </c>
       <c r="K45" t="n">
         <v>240.2990206108059</v>
       </c>
       <c r="L45" t="n">
-        <v>323.1116879522488</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M45" t="n">
-        <v>377.0560996465288</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N45" t="n">
-        <v>387.0356526387314</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O45" t="n">
-        <v>354.0620086121733</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P45" t="n">
         <v>284.1659765693366</v>
@@ -34469,16 +34469,16 @@
         <v>189.9574298790476</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988862</v>
       </c>
       <c r="S45" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T45" t="n">
-        <v>5.998174754633199</v>
+        <v>5.9981747546332</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678789</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.247591245634476</v>
+        <v>1.247591245634477</v>
       </c>
       <c r="H46" t="n">
         <v>11.09222034755017</v>
@@ -34524,7 +34524,7 @@
         <v>37.51847127780773</v>
       </c>
       <c r="J46" t="n">
-        <v>88.20470106635749</v>
+        <v>88.2047010663575</v>
       </c>
       <c r="K46" t="n">
         <v>144.9474192655328</v>
@@ -34542,22 +34542,22 @@
         <v>176.341351701135</v>
       </c>
       <c r="P46" t="n">
-        <v>150.8904902901915</v>
+        <v>150.8904902901916</v>
       </c>
       <c r="Q46" t="n">
         <v>104.4687542139924</v>
       </c>
       <c r="R46" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916473</v>
       </c>
       <c r="S46" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438218</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K11" t="n">
-        <v>133.7007521391024</v>
+        <v>133.7007521391025</v>
       </c>
       <c r="L11" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M11" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611866</v>
       </c>
       <c r="N11" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O11" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P11" t="n">
-        <v>370.586490188763</v>
+        <v>345.7453580212306</v>
       </c>
       <c r="Q11" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K12" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L12" t="n">
-        <v>184.5573081723746</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M12" t="n">
-        <v>583.6180421611867</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6180421611867</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O12" t="n">
-        <v>252.1599303404343</v>
+        <v>400.239952007112</v>
       </c>
       <c r="P12" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K13" t="n">
         <v>202.1091386667569</v>
       </c>
       <c r="L13" t="n">
-        <v>292.5040294974789</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M13" t="n">
         <v>314.5806868114501</v>
@@ -35580,13 +35580,13 @@
         <v>314.4788694042006</v>
       </c>
       <c r="O13" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422819</v>
       </c>
       <c r="P13" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7007521391024</v>
+        <v>133.7007521391025</v>
       </c>
       <c r="L14" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M14" t="n">
-        <v>292.7225450187714</v>
+        <v>583.6180421611864</v>
       </c>
       <c r="N14" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611864</v>
       </c>
       <c r="O14" t="n">
-        <v>583.6180421611867</v>
+        <v>311.0997883390697</v>
       </c>
       <c r="P14" t="n">
         <v>168.7200793398052</v>
       </c>
       <c r="Q14" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744606</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K15" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L15" t="n">
-        <v>373.3314960117585</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M15" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N15" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O15" t="n">
-        <v>211.4657641677289</v>
+        <v>400.239952007111</v>
       </c>
       <c r="P15" t="n">
         <v>468.6543377949436</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K16" t="n">
         <v>202.1091386667569</v>
@@ -35823,7 +35823,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K17" t="n">
-        <v>339.362424680655</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L17" t="n">
-        <v>203.1421125849959</v>
+        <v>406.4570807268644</v>
       </c>
       <c r="M17" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N17" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O17" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P17" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q17" t="n">
         <v>290.3574037273507</v>
@@ -35963,16 +35963,16 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K18" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L18" t="n">
-        <v>373.3314960117585</v>
+        <v>373.3314960117567</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N18" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O18" t="n">
         <v>211.4657641677289</v>
@@ -36057,10 +36057,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P19" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K20" t="n">
-        <v>339.362424680655</v>
+        <v>314.5212925131215</v>
       </c>
       <c r="L20" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M20" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N20" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O20" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P20" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q20" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K21" t="n">
-        <v>102.4575816364469</v>
+        <v>184.8566611849485</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3976534758337</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M21" t="n">
-        <v>583.6180421611867</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N21" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O21" t="n">
         <v>211.4657641677289</v>
       </c>
       <c r="P21" t="n">
-        <v>202.3574409067707</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q21" t="n">
         <v>260.0529435288752</v>
@@ -36294,10 +36294,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P22" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L23" t="n">
-        <v>620.8033271354464</v>
+        <v>203.1421125849959</v>
       </c>
       <c r="M23" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N23" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O23" t="n">
-        <v>238.5179771123161</v>
+        <v>600.5428003835525</v>
       </c>
       <c r="P23" t="n">
-        <v>462.0702327992877</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q23" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K24" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L24" t="n">
-        <v>555.3976534758337</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M24" t="n">
-        <v>236.4068955573333</v>
+        <v>629.9740312999442</v>
       </c>
       <c r="N24" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O24" t="n">
         <v>211.4657641677289</v>
@@ -36455,7 +36455,7 @@
         <v>468.6543377949436</v>
       </c>
       <c r="Q24" t="n">
-        <v>260.0529435288752</v>
+        <v>130.9510447988427</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36531,10 +36531,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P25" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.0126645563405</v>
+        <v>55.01266455634052</v>
       </c>
       <c r="K26" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L26" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M26" t="n">
-        <v>707.5376057899417</v>
+        <v>707.5376057899418</v>
       </c>
       <c r="N26" t="n">
         <v>704.2065084585947</v>
       </c>
       <c r="O26" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P26" t="n">
-        <v>397.1047358764469</v>
+        <v>397.1047358764455</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.04241306744601</v>
+        <v>78.04241306744606</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K27" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L27" t="n">
-        <v>555.3976534758337</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M27" t="n">
-        <v>264.6678023706347</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N27" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O27" t="n">
-        <v>605.3280834444583</v>
+        <v>298.9054970143244</v>
       </c>
       <c r="P27" t="n">
         <v>468.6543377949436</v>
       </c>
       <c r="Q27" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679163</v>
+        <v>74.2767321767917</v>
       </c>
       <c r="K28" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L28" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M28" t="n">
-        <v>314.58068681145</v>
+        <v>314.5806868114501</v>
       </c>
       <c r="N28" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042007</v>
       </c>
       <c r="O28" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422817</v>
       </c>
       <c r="P28" t="n">
-        <v>227.6002607821919</v>
+        <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940493</v>
+        <v>97.737922189405</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L29" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M29" t="n">
-        <v>258.0240722971092</v>
+        <v>707.5376057899418</v>
       </c>
       <c r="N29" t="n">
         <v>704.2065084585947</v>
       </c>
       <c r="O29" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P29" t="n">
-        <v>440.3655313697693</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.3574037273507</v>
+        <v>137.3304544320137</v>
       </c>
       <c r="R29" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K30" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3976534758337</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M30" t="n">
-        <v>700.6271294745104</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N30" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O30" t="n">
-        <v>605.3280834444583</v>
+        <v>298.9054970143244</v>
       </c>
       <c r="P30" t="n">
-        <v>297.1602477036468</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.27673217679167</v>
+        <v>74.2767321767917</v>
       </c>
       <c r="K31" t="n">
         <v>202.1091386667569</v>
@@ -36999,16 +36999,16 @@
         <v>314.5806868114501</v>
       </c>
       <c r="N31" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042007</v>
       </c>
       <c r="O31" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422817</v>
       </c>
       <c r="P31" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940497</v>
+        <v>97.737922189405</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>130.08380352434</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K32" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L32" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M32" t="n">
-        <v>707.5376057899417</v>
+        <v>707.5376057899418</v>
       </c>
       <c r="N32" t="n">
         <v>704.2065084585947</v>
       </c>
       <c r="O32" t="n">
-        <v>238.5179771123161</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P32" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q32" t="n">
-        <v>290.3574037273507</v>
+        <v>137.3304544320137</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>43.50297656221458</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K33" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3976534758337</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M33" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N33" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O33" t="n">
-        <v>605.3280834444583</v>
+        <v>298.9054970143244</v>
       </c>
       <c r="P33" t="n">
         <v>468.6543377949436</v>
       </c>
       <c r="Q33" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.27673217679167</v>
+        <v>74.27673217679161</v>
       </c>
       <c r="K34" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L34" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M34" t="n">
-        <v>314.5806868114501</v>
+        <v>314.58068681145</v>
       </c>
       <c r="N34" t="n">
         <v>314.4788694042006</v>
@@ -37242,10 +37242,10 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P34" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821933</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73792218940497</v>
+        <v>97.73792218940491</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K35" t="n">
-        <v>133.7007521391024</v>
+        <v>398.4907610665344</v>
       </c>
       <c r="L35" t="n">
-        <v>360.3151489809927</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M35" t="n">
-        <v>258.0240722971092</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="N35" t="n">
-        <v>674.2621117002074</v>
+        <v>266.8595840466106</v>
       </c>
       <c r="O35" t="n">
-        <v>238.5179771123161</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P35" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398052</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744606</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>43.50297656221515</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K36" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3976534758337</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M36" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N36" t="n">
-        <v>255.6939405553981</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O36" t="n">
-        <v>605.3280834444583</v>
+        <v>298.9054970143251</v>
       </c>
       <c r="P36" t="n">
         <v>468.6543377949436</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37479,10 +37479,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P37" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>224.1092797284143</v>
+        <v>83.7392499440982</v>
       </c>
       <c r="K38" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L38" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M38" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N38" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O38" t="n">
-        <v>454.1069964232143</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P38" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q38" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R38" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K39" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L39" t="n">
-        <v>310.1631786539681</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M39" t="n">
-        <v>674.2621117002076</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N39" t="n">
-        <v>674.2621117002076</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O39" t="n">
-        <v>605.3280834444583</v>
+        <v>298.9054970143251</v>
       </c>
       <c r="P39" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,10 +37716,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P40" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K41" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L41" t="n">
-        <v>203.1421125849959</v>
+        <v>418.731131895894</v>
       </c>
       <c r="M41" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N41" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O41" t="n">
-        <v>478.9481285907448</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P41" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q41" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.84113216753153</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K42" t="n">
-        <v>366.9228186490254</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L42" t="n">
-        <v>439.5602609181192</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M42" t="n">
-        <v>674.2621117002074</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N42" t="n">
-        <v>674.2621117002074</v>
+        <v>343.1336734019945</v>
       </c>
       <c r="O42" t="n">
         <v>211.4657641677289</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P43" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K44" t="n">
-        <v>457.8461647102671</v>
+        <v>457.8461647102672</v>
       </c>
       <c r="L44" t="n">
         <v>203.1421125849959</v>
       </c>
       <c r="M44" t="n">
-        <v>258.0240722971092</v>
+        <v>258.0240722971093</v>
       </c>
       <c r="N44" t="n">
         <v>266.8595840466106</v>
       </c>
       <c r="O44" t="n">
-        <v>454.1069964232134</v>
+        <v>478.9481285907455</v>
       </c>
       <c r="P44" t="n">
-        <v>490.5187875112878</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q44" t="n">
         <v>290.3574037273507</v>
       </c>
       <c r="R44" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K45" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L45" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758339</v>
       </c>
       <c r="M45" t="n">
-        <v>674.2621117002074</v>
+        <v>322.3617985711068</v>
       </c>
       <c r="N45" t="n">
-        <v>674.2621117002074</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O45" t="n">
-        <v>605.3280834444583</v>
+        <v>211.4657641677289</v>
       </c>
       <c r="P45" t="n">
-        <v>275.7974396366002</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>200.9264796151747</v>
       </c>
       <c r="P46" t="n">
-        <v>148.169049555085</v>
+        <v>148.1690495550851</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229801</v>
+        <v>18.30671096229803</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
